--- a/BrainStorm/website/users.xlsx
+++ b/BrainStorm/website/users.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aakarya\Desktop\BrainStorm\website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60C7FF8E-C4B3-482B-B420-7989A521BD30}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -51,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -851,16 +842,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -882,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>12</v>
       </c>
